--- a/chapter_3_vpa_mesc_cyst_emb_redo/mesc_combined/results/vpa_exp_pathway_count_workbook.xlsx
+++ b/chapter_3_vpa_mesc_cyst_emb_redo/mesc_combined/results/vpa_exp_pathway_count_workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dasha\Documents\GitHub\dissertation_related\chapter_3_vpa_mesc_cyst_emb_redo\mesc_combined\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7522B6E3-57B5-48EF-9950-33FF3DF94A59}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4B8786-661D-4511-9351-7992B320B170}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24150" windowHeight="6240" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24150" windowHeight="6240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sorted_by_hits" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="252">
   <si>
     <t>path_name</t>
   </si>
@@ -287,12 +287,504 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Aldosterone synthesis and secretion</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>Ascorbate and aldarate metabolism</t>
+  </si>
+  <si>
+    <t>Bacterial secretion system</t>
+  </si>
+  <si>
+    <t>Bile secretion</t>
+  </si>
+  <si>
+    <t>Biofilm formation - Escherichia coli</t>
+  </si>
+  <si>
+    <t>Biofilm formation - Pseudomonas aeruginosa</t>
+  </si>
+  <si>
+    <t>Biofilm formation - Vibrio cholerae</t>
+  </si>
+  <si>
+    <t>Biosynthesis of secondary metabolites - unclassified</t>
+  </si>
+  <si>
+    <t>Biosynthesis of terpenoids and steroids</t>
+  </si>
+  <si>
+    <t>Biosynthesis of unsaturated fatty acids</t>
+  </si>
+  <si>
+    <t>C-type lectin receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>Calcium signaling pathway</t>
+  </si>
+  <si>
+    <t>Carbapenem biosynthesis</t>
+  </si>
+  <si>
+    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
+  </si>
+  <si>
+    <t>Clavulanic acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Cortisol synthesis and secretion</t>
+  </si>
+  <si>
+    <t>Cushing syndrome</t>
+  </si>
+  <si>
+    <t>Drug metabolism - cytochrome P450</t>
+  </si>
+  <si>
+    <t>Endocytosis</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
+    <t>Hypertrophic cardiomyopathy (HCM)</t>
+  </si>
+  <si>
+    <t>Inflammatory mediator regulation of TRP channels</t>
+  </si>
+  <si>
+    <t>Insulin secretion</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Longevity regulating pathway</t>
+  </si>
+  <si>
+    <t>Longevity regulating pathway - worm</t>
+  </si>
+  <si>
+    <t>Mannose type O-glycan biosynthesis</t>
+  </si>
+  <si>
+    <t>Morphine addiction</t>
+  </si>
+  <si>
+    <t>mTOR signaling pathway</t>
+  </si>
+  <si>
+    <t>Necroptosis</t>
+  </si>
+  <si>
+    <t>NOD-like receptor signaling pathway</t>
+  </si>
+  <si>
+    <t>Novobiocin biosynthesis</t>
+  </si>
+  <si>
+    <t>Parathyroid hormone synthesis, secretion and action</t>
+  </si>
+  <si>
+    <t>Penicillin and cephalosporin biosynthesis</t>
+  </si>
+  <si>
+    <t>Pertussis</t>
+  </si>
+  <si>
+    <t>Phosphatidylinositol signaling system</t>
+  </si>
+  <si>
+    <t>Phototransduction</t>
+  </si>
+  <si>
+    <t>PI3K-Akt signaling pathway</t>
+  </si>
+  <si>
+    <t>Primary bile acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Prodigiosin biosynthesis</t>
+  </si>
+  <si>
+    <t>Prolactin signaling pathway</t>
+  </si>
+  <si>
+    <t>Propanoate metabolism</t>
+  </si>
+  <si>
+    <t>Puromycin biosynthesis</t>
+  </si>
+  <si>
+    <t>Quorum sensing</t>
+  </si>
+  <si>
+    <t>Rap1 signaling pathway</t>
+  </si>
+  <si>
+    <t>Ras signaling pathway</t>
+  </si>
+  <si>
+    <t>Regulation of lipolysis in adipocytes</t>
+  </si>
+  <si>
+    <t>Riboflavin metabolism</t>
+  </si>
+  <si>
+    <t>RNA transport</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>Staurosporine biosynthesis</t>
+  </si>
+  <si>
+    <t>Streptomycin biosynthesis</t>
+  </si>
+  <si>
+    <t>Styrene degradation</t>
+  </si>
+  <si>
+    <t>Taurine and hypotaurine metabolism</t>
+  </si>
+  <si>
+    <t>Terpenoid backbone biosynthesis</t>
+  </si>
+  <si>
+    <t>Thyroid hormone synthesis</t>
+  </si>
+  <si>
+    <t>Type II diabetes mellitus</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine biosynthesis</t>
+  </si>
+  <si>
+    <t>Vitamin B6 metabolism</t>
+  </si>
+  <si>
+    <t>Acarbose and validamycin biosynthesis</t>
+  </si>
+  <si>
+    <t>Aflatoxin biosynthesis</t>
+  </si>
+  <si>
+    <t>African trypanosomiasis</t>
+  </si>
+  <si>
+    <t>AGE-RAGE signaling pathway in diabetic complications</t>
+  </si>
+  <si>
+    <t>Alcoholism</t>
+  </si>
+  <si>
+    <t>Aminobenzoate degradation</t>
+  </si>
+  <si>
+    <t>Amoebiasis</t>
+  </si>
+  <si>
+    <t>Amphetamine addiction</t>
+  </si>
+  <si>
+    <t>Amyotrophic lateral sclerosis (ALS)</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Atrazine degradation</t>
+  </si>
+  <si>
+    <t>Autophagy - animal</t>
+  </si>
+  <si>
+    <t>Autophagy - other</t>
+  </si>
+  <si>
+    <t>Autophagy - yeast</t>
+  </si>
+  <si>
+    <t>Benzoate degradation</t>
+  </si>
+  <si>
+    <t>Betalain biosynthesis</t>
+  </si>
+  <si>
+    <t>Biosynthesis of ansamycins</t>
+  </si>
+  <si>
+    <t>Biosynthesis of enediyne antibiotics</t>
+  </si>
+  <si>
+    <t>Biosynthesis of type II polyketide backbone</t>
+  </si>
+  <si>
+    <t>Biosynthesis of vancomycin group antibiotics</t>
+  </si>
+  <si>
+    <t>Biotin metabolism</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>C5-Branched dibasic acid metabolism</t>
+  </si>
+  <si>
+    <t>Carbohydrate digestion and absorption</t>
+  </si>
+  <si>
+    <t>Carbon fixation pathways in prokaryotes</t>
+  </si>
+  <si>
+    <t>Chagas disease (American trypanosomiasis)</t>
+  </si>
+  <si>
+    <t>Chloroalkane and chloroalkene degradation</t>
+  </si>
+  <si>
+    <t>Chlorocyclohexane and chlorobenzene degradation</t>
+  </si>
+  <si>
+    <t>Cholinergic synapse</t>
+  </si>
+  <si>
+    <t>Circadian entrainment</t>
+  </si>
+  <si>
+    <t>Citrate cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t>Cocaine addiction</t>
+  </si>
+  <si>
+    <t>Cutin, suberine and wax biosynthesis</t>
+  </si>
+  <si>
+    <t>D-Alanine metabolism</t>
+  </si>
+  <si>
+    <t>D-Arginine and D-ornithine metabolism</t>
+  </si>
+  <si>
+    <t>D-Glutamine and D-glutamate metabolism</t>
+  </si>
+  <si>
+    <t>Degradation of aromatic compounds</t>
+  </si>
+  <si>
+    <t>Dioxin degradation</t>
+  </si>
+  <si>
+    <t>Dopaminergic synapse</t>
+  </si>
+  <si>
+    <t>Drug metabolism - other enzymes</t>
+  </si>
+  <si>
+    <t>Eicosanoids</t>
+  </si>
+  <si>
+    <t>Epithelial cell signaling in Helicobacter pylori infection</t>
+  </si>
+  <si>
+    <t>Estrogen signaling pathway</t>
+  </si>
+  <si>
+    <t>Ethylbenzene degradation</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
+    <t>Fatty acid elongation</t>
+  </si>
+  <si>
+    <t>Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>Fc epsilon RI signaling pathway</t>
+  </si>
+  <si>
+    <t>Fc gamma R-mediated phagocytosis</t>
+  </si>
+  <si>
+    <t>Ferroptosis</t>
+  </si>
+  <si>
+    <t>Furfural degradation</t>
+  </si>
+  <si>
+    <t>GABAergic synapse</t>
+  </si>
+  <si>
+    <t>Gap junction</t>
+  </si>
+  <si>
+    <t>Glucosinolate biosynthesis</t>
+  </si>
+  <si>
+    <t>Glutamatergic synapse</t>
+  </si>
+  <si>
+    <t>Glycosylphosphatidylinositol (GPI)-anchor biosynthesis</t>
+  </si>
+  <si>
+    <t>GnRH signaling pathway</t>
+  </si>
+  <si>
+    <t>Huntington disease</t>
+  </si>
+  <si>
+    <t>Indole alkaloid biosynthesis</t>
+  </si>
+  <si>
+    <t>Insulin resistance</t>
+  </si>
+  <si>
+    <t>Insulin signaling pathway</t>
+  </si>
+  <si>
+    <t>Isoquinoline alkaloid biosynthesis</t>
+  </si>
+  <si>
+    <t>Kaposi sarcoma-associated herpesvirus infection</t>
+  </si>
+  <si>
+    <t>Leishmaniasis</t>
+  </si>
+  <si>
+    <t>Long-term depression</t>
+  </si>
+  <si>
+    <t>Long-term potentiation</t>
+  </si>
+  <si>
+    <t>Meiosis - yeast</t>
+  </si>
+  <si>
+    <t>Melanogenesis</t>
+  </si>
+  <si>
+    <t>Neomycin, kanamycin and gentamicin biosynthesis</t>
+  </si>
+  <si>
+    <t>Nicotine addiction</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>Non-alcoholic fatty liver disease (NAFLD)</t>
+  </si>
+  <si>
+    <t>One carbon pool by folate</t>
+  </si>
+  <si>
+    <t>Ovarian steroidogenesis</t>
+  </si>
+  <si>
+    <t>Oxytocin signaling pathway</t>
+  </si>
+  <si>
+    <t>Pathogenic Escherichia coli infection</t>
+  </si>
+  <si>
+    <t>Pathways in cancer</t>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions</t>
+  </si>
+  <si>
+    <t>Peptidoglycan biosynthesis</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism</t>
+  </si>
+  <si>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
+  </si>
+  <si>
+    <t>Phenylpropanoid biosynthesis</t>
+  </si>
+  <si>
+    <t>Phospholipase D signaling pathway</t>
+  </si>
+  <si>
+    <t>Phototransduction - fly</t>
+  </si>
+  <si>
+    <t>Polyketide sugar unit biosynthesis</t>
+  </si>
+  <si>
+    <t>PPAR signaling pathway</t>
+  </si>
+  <si>
+    <t>Proximal tubule bicarbonate reclamation</t>
+  </si>
+  <si>
+    <t>Renal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Salmonella infection</t>
+  </si>
+  <si>
+    <t>Selenocompound metabolism</t>
+  </si>
+  <si>
+    <t>Serotonergic synapse</t>
+  </si>
+  <si>
+    <t>Steroid hormone biosynthesis</t>
+  </si>
+  <si>
+    <t>Synthesis and degradation of ketone bodies</t>
+  </si>
+  <si>
+    <t>Tropane, piperidine and pyridine alkaloid biosynthesis</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism</t>
+  </si>
+  <si>
+    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation</t>
+  </si>
+  <si>
+    <t>Vascular smooth muscle contraction</t>
+  </si>
+  <si>
+    <t>Xylene degradation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1126,11 +1618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A82" sqref="A1:C82"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection sqref="A1:C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,17 +2532,1824 @@
         <v>2</v>
       </c>
     </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140">
+        <v>11</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>156</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>157</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>158</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>159</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>160</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>162</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>163</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>164</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>166</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170">
+        <v>11</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176">
+        <v>9</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>186</v>
+      </c>
+      <c r="B181">
+        <v>3</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>188</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>189</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>190</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>191</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>192</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>194</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>195</v>
+      </c>
+      <c r="B190">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>196</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>197</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>198</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>200</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>201</v>
+      </c>
+      <c r="B196">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>203</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>205</v>
+      </c>
+      <c r="B200">
+        <v>8</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>206</v>
+      </c>
+      <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>207</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>208</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>209</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>211</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>212</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>213</v>
+      </c>
+      <c r="B208">
+        <v>3</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>214</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>216</v>
+      </c>
+      <c r="B211">
+        <v>2</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>218</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>222</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>224</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>225</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>226</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>229</v>
+      </c>
+      <c r="B224">
+        <v>6</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>230</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>231</v>
+      </c>
+      <c r="B226">
+        <v>11</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>232</v>
+      </c>
+      <c r="B227">
+        <v>4</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>234</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>236</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>237</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>238</v>
+      </c>
+      <c r="B233">
+        <v>5</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>241</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>243</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>244</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>245</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>246</v>
+      </c>
+      <c r="B241">
+        <v>5</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242">
+        <v>11</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>248</v>
+      </c>
+      <c r="B243">
+        <v>3</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>249</v>
+      </c>
+      <c r="B244">
+        <v>7</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>250</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>251</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A2:C246">
+    <sortCondition descending="1" ref="C2:C246"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="A1:C31"/>
+      <selection sqref="A1:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,10 +4394,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -2106,10 +4405,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -2128,10 +4427,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -2139,10 +4438,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2150,13 +4449,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2172,10 +4471,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2194,18 +4493,18 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -2216,10 +4515,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -2227,10 +4526,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2238,10 +4537,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -2249,21 +4548,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2271,10 +4570,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2282,10 +4581,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2293,10 +4592,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -2304,10 +4603,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2315,10 +4614,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2326,10 +4625,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2337,10 +4636,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2348,10 +4647,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2359,7 +4658,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2370,10 +4669,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2392,29 +4691,326 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B31">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36">
         <v>7</v>
       </c>
-      <c r="C31">
-        <v>2</v>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>198</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>244</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C31">
-    <sortCondition descending="1" ref="C2:C31"/>
+  <sortState ref="A2:C58">
+    <sortCondition descending="1" ref="C2:C58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2690,29 +5286,29 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>15</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>15</v>
@@ -2723,87 +5319,87 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>14</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>14</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>12</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2811,10 +5407,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -2822,21 +5418,21 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2844,142 +5440,142 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -2987,65 +5583,65 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -3053,10 +5649,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -3064,76 +5660,76 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -3141,21 +5737,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -3163,10 +5759,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -3174,109 +5770,109 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -3284,10 +5880,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -3295,10 +5891,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -3306,10 +5902,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -3317,29 +5913,1833 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86">
+        <v>5</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>246</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>42</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>76</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>79</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>113</v>
+      </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>139</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>147</v>
+      </c>
+      <c r="B111">
+        <v>4</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>182</v>
+      </c>
+      <c r="B113">
+        <v>4</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>232</v>
+      </c>
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>70</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>71</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>72</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>75</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>96</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>114</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>117</v>
+      </c>
+      <c r="B125">
+        <v>3</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>121</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128">
+        <v>3</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>148</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>171</v>
+      </c>
+      <c r="B132">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>196</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>198</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>213</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>233</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>242</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>244</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>248</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>49</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>65</v>
       </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>2</v>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>95</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>100</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>101</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>103</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>107</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>115</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>116</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>120</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>122</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>123</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>125</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>126</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>130</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>131</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>134</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>135</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>136</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>137</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>140</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>142</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>153</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>160</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>165</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>166</v>
+      </c>
+      <c r="B172">
+        <v>2</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>191</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>194</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>197</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>206</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>216</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>221</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>222</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>224</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>228</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>235</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>239</v>
+      </c>
+      <c r="B190">
+        <v>2</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>243</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>250</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>251</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>91</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>93</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>94</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>99</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>102</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>104</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>105</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>106</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>112</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>118</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>124</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>127</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>128</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>129</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>151</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>152</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>154</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>156</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>161</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>162</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>163</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>164</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>167</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>168</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>169</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>176</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>178</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>180</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>192</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>193</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>199</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>200</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>202</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>204</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>207</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>208</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>209</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>212</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>214</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>215</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>217</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>218</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>219</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>223</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>225</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>226</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>227</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>230</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>234</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>236</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>237</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>240</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>241</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C82">
-    <sortCondition descending="1" ref="B2:B82"/>
+  <sortState ref="A2:C246">
+    <sortCondition descending="1" ref="B2:B246"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,10 +7839,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -3450,252 +7850,329 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>73</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>10</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B18">
+      <c r="B22">
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>63</v>
       </c>
-      <c r="B19">
+      <c r="B24">
         <v>8</v>
       </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>28</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21">
-        <v>7</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>77</v>
       </c>
       <c r="B25">
         <v>7</v>
       </c>
       <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B26">
+      <c r="B32">
         <v>6</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B27">
+      <c r="B33">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>61</v>
       </c>
-      <c r="B29">
+      <c r="B37">
         <v>4</v>
       </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>75</v>
       </c>
-      <c r="B31">
-        <v>3</v>
-      </c>
-      <c r="C31">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C31">
-    <sortCondition descending="1" ref="B2:B31"/>
+  <sortState ref="A2:E38">
+    <sortCondition descending="1" ref="B2:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
